--- a/data/example/Power_ImpExp.xlsx
+++ b/data/example/Power_ImpExp.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert/Nextcloud/lego_africa/Arbeit/06_Projekte/2024/LEGO Datenbank/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD12FD88-2EBA-0748-8A20-5A4C7405B2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95726145-DF84-4F39-BB07-78CB718B53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34572" yWindow="-17508" windowWidth="30936" windowHeight="16776" tabRatio="857" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Power ImpExp" sheetId="117" r:id="rId1"/>
+    <sheet name="Settings" sheetId="118" r:id="rId1"/>
+    <sheet name="Power ImpExp" sheetId="117" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="businfo">#REF!</definedName>
@@ -28,7 +29,7 @@
     <definedName name="h2_indices">#REF!</definedName>
     <definedName name="h2network">#REF!</definedName>
     <definedName name="hindex">#REF!</definedName>
-    <definedName name="impexp">'Power ImpExp'!$B$1:$G$31</definedName>
+    <definedName name="impexp">'Power ImpExp'!$B$1:$G$27</definedName>
     <definedName name="indices">#REF!</definedName>
     <definedName name="inflows">#REF!</definedName>
     <definedName name="network">#REF!</definedName>
@@ -69,7 +70,7 @@
     <author>Felix Auer</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5E34A4E2-A61D-4214-AD3A-8C798CE5C99C}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{5E34A4E2-A61D-4214-AD3A-8C798CE5C99C}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{02649A78-91DA-40B4-8775-AE327DF5B1C1}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{02649A78-91DA-40B4-8775-AE327DF5B1C1}">
       <text>
         <r>
           <rPr>
@@ -100,26 +101,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
-  <si>
-    <t>[MW]</t>
-  </si>
-  <si>
-    <t>[€/MWh]</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Node_XYZ</t>
-  </si>
-  <si>
     <t>rp01</t>
   </si>
   <si>
@@ -196,13 +182,73 @@
   </si>
   <si>
     <t>Power - Import/ Export information</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ImportFix</t>
+  </si>
+  <si>
+    <t>[MW or €/MWh]</t>
+  </si>
+  <si>
+    <t>Node_1</t>
+  </si>
+  <si>
+    <t>rp02</t>
+  </si>
+  <si>
+    <t>rp03</t>
+  </si>
+  <si>
+    <t>rp04</t>
+  </si>
+  <si>
+    <t>rp05</t>
+  </si>
+  <si>
+    <t>rp06</t>
+  </si>
+  <si>
+    <t>rp07</t>
+  </si>
+  <si>
+    <t>ImportMax</t>
+  </si>
+  <si>
+    <t>ExportFix</t>
+  </si>
+  <si>
+    <t>ExportMax</t>
+  </si>
+  <si>
+    <t>Repr. Period</t>
+  </si>
+  <si>
+    <t>see drop-down list</t>
+  </si>
+  <si>
+    <t>ImportFix, ExportMax, ...</t>
+  </si>
+  <si>
+    <t>Hourly Imp-/Export levels at node (Maximum possible ("Max") or mandatory imp-/export amount ("Fix"), or Hourly Price)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -294,6 +340,43 @@
       <color theme="0"/>
       <name val="Aptos"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -375,13 +458,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,28 +484,37 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Link" xfId="8" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Standard 2" xfId="5" xr:uid="{5DF4A97E-8529-4A9B-8CDD-1ED3E5DC1118}"/>
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
@@ -743,637 +832,2021 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49585717-D10D-4988-85DD-B863CD76187B}">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6630A40-48F3-45FC-9BB3-8A390706E715}">
   <sheetPr codeName="Tabelle11">
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:AB27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="4" width="12.59765625" style="11" customWidth="1"/>
-    <col min="5" max="7" width="12.3984375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="3" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+    </row>
+    <row r="5" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E7" s="8">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8">
+        <v>21</v>
+      </c>
+      <c r="I7" s="8">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8">
+        <v>19</v>
+      </c>
+      <c r="K7" s="8">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8">
+        <v>17</v>
+      </c>
+      <c r="M7" s="8">
+        <v>16</v>
+      </c>
+      <c r="N7" s="8">
+        <v>15</v>
+      </c>
+      <c r="O7" s="8">
+        <v>14</v>
+      </c>
+      <c r="P7" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>12</v>
+      </c>
+      <c r="R7" s="8">
+        <v>11</v>
+      </c>
+      <c r="S7" s="8">
+        <v>10</v>
+      </c>
+      <c r="T7" s="8">
+        <v>9</v>
+      </c>
+      <c r="U7" s="8">
+        <v>8</v>
+      </c>
+      <c r="V7" s="8">
+        <v>7</v>
+      </c>
+      <c r="W7" s="8">
+        <v>6</v>
+      </c>
+      <c r="X7" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="AB7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8">
+        <v>20</v>
+      </c>
+      <c r="K8" s="8">
+        <v>19</v>
+      </c>
+      <c r="L8" s="8">
+        <v>18</v>
+      </c>
+      <c r="M8" s="8">
+        <v>17</v>
+      </c>
+      <c r="N8" s="8">
+        <v>16</v>
+      </c>
+      <c r="O8" s="8">
+        <v>15</v>
+      </c>
+      <c r="P8" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>13</v>
+      </c>
+      <c r="R8" s="8">
+        <v>12</v>
+      </c>
+      <c r="S8" s="8">
+        <v>11</v>
+      </c>
+      <c r="T8" s="8">
+        <v>10</v>
+      </c>
+      <c r="U8" s="8">
+        <v>9</v>
+      </c>
+      <c r="V8" s="8">
+        <v>8</v>
+      </c>
+      <c r="W8" s="8">
+        <v>7</v>
+      </c>
+      <c r="X8" s="8">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="AB8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8">
+        <v>26</v>
+      </c>
+      <c r="F9" s="8">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8">
+        <v>29</v>
+      </c>
+      <c r="I9" s="8">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8">
+        <v>31</v>
+      </c>
+      <c r="K9" s="8">
+        <v>32</v>
+      </c>
+      <c r="L9" s="8">
+        <v>33</v>
+      </c>
+      <c r="M9" s="8">
+        <v>34</v>
+      </c>
+      <c r="N9" s="8">
+        <v>35</v>
+      </c>
+      <c r="O9" s="8">
+        <v>36</v>
+      </c>
+      <c r="P9" s="8">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>38</v>
+      </c>
+      <c r="R9" s="8">
+        <v>39</v>
+      </c>
+      <c r="S9" s="8">
+        <v>40</v>
+      </c>
+      <c r="T9" s="8">
+        <v>41</v>
+      </c>
+      <c r="U9" s="8">
+        <v>42</v>
+      </c>
+      <c r="V9" s="8">
+        <v>43</v>
+      </c>
+      <c r="W9" s="8">
+        <v>44</v>
+      </c>
+      <c r="X9" s="8">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8">
+        <v>29</v>
+      </c>
+      <c r="H10" s="8">
+        <v>30</v>
+      </c>
+      <c r="I10" s="8">
+        <v>31</v>
+      </c>
+      <c r="J10" s="8">
+        <v>32</v>
+      </c>
+      <c r="K10" s="8">
+        <v>33</v>
+      </c>
+      <c r="L10" s="8">
+        <v>34</v>
+      </c>
+      <c r="M10" s="8">
+        <v>35</v>
+      </c>
+      <c r="N10" s="8">
+        <v>36</v>
+      </c>
+      <c r="O10" s="8">
+        <v>37</v>
+      </c>
+      <c r="P10" s="8">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>39</v>
+      </c>
+      <c r="R10" s="8">
+        <v>40</v>
+      </c>
+      <c r="S10" s="8">
+        <v>41</v>
+      </c>
+      <c r="T10" s="8">
+        <v>42</v>
+      </c>
+      <c r="U10" s="8">
+        <v>43</v>
+      </c>
+      <c r="V10" s="8">
+        <v>44</v>
+      </c>
+      <c r="W10" s="8">
+        <v>45</v>
+      </c>
+      <c r="X10" s="8">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>47</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8">
+        <v>29</v>
+      </c>
+      <c r="G11" s="8">
+        <v>30</v>
+      </c>
+      <c r="H11" s="8">
+        <v>31</v>
+      </c>
+      <c r="I11" s="8">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8">
+        <v>33</v>
+      </c>
+      <c r="K11" s="8">
+        <v>34</v>
+      </c>
+      <c r="L11" s="8">
+        <v>35</v>
+      </c>
+      <c r="M11" s="8">
+        <v>36</v>
+      </c>
+      <c r="N11" s="8">
+        <v>37</v>
+      </c>
+      <c r="O11" s="8">
+        <v>38</v>
+      </c>
+      <c r="P11" s="8">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>40</v>
+      </c>
+      <c r="R11" s="8">
+        <v>41</v>
+      </c>
+      <c r="S11" s="8">
+        <v>42</v>
+      </c>
+      <c r="T11" s="8">
+        <v>43</v>
+      </c>
+      <c r="U11" s="8">
+        <v>44</v>
+      </c>
+      <c r="V11" s="8">
+        <v>45</v>
+      </c>
+      <c r="W11" s="8">
+        <v>46</v>
+      </c>
+      <c r="X11" s="8">
+        <v>47</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8">
+        <v>29</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>31</v>
+      </c>
+      <c r="H12" s="8">
+        <v>32</v>
+      </c>
+      <c r="I12" s="8">
+        <v>33</v>
+      </c>
+      <c r="J12" s="8">
+        <v>34</v>
+      </c>
+      <c r="K12" s="8">
+        <v>35</v>
+      </c>
+      <c r="L12" s="8">
+        <v>36</v>
+      </c>
+      <c r="M12" s="8">
+        <v>37</v>
+      </c>
+      <c r="N12" s="8">
+        <v>38</v>
+      </c>
+      <c r="O12" s="8">
+        <v>39</v>
+      </c>
+      <c r="P12" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>41</v>
+      </c>
+      <c r="R12" s="8">
+        <v>42</v>
+      </c>
+      <c r="S12" s="8">
+        <v>43</v>
+      </c>
+      <c r="T12" s="8">
+        <v>44</v>
+      </c>
+      <c r="U12" s="8">
+        <v>45</v>
+      </c>
+      <c r="V12" s="8">
+        <v>46</v>
+      </c>
+      <c r="W12" s="8">
+        <v>47</v>
+      </c>
+      <c r="X12" s="8">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>51</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8">
+        <v>31</v>
+      </c>
+      <c r="G13" s="8">
+        <v>32</v>
+      </c>
+      <c r="H13" s="8">
+        <v>33</v>
+      </c>
+      <c r="I13" s="8">
+        <v>34</v>
+      </c>
+      <c r="J13" s="8">
+        <v>35</v>
+      </c>
+      <c r="K13" s="8">
+        <v>36</v>
+      </c>
+      <c r="L13" s="8">
+        <v>37</v>
+      </c>
+      <c r="M13" s="8">
+        <v>38</v>
+      </c>
+      <c r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8">
+        <v>40</v>
+      </c>
+      <c r="P13" s="8">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>42</v>
+      </c>
+      <c r="R13" s="8">
+        <v>43</v>
+      </c>
+      <c r="S13" s="8">
+        <v>44</v>
+      </c>
+      <c r="T13" s="8">
+        <v>45</v>
+      </c>
+      <c r="U13" s="8">
+        <v>46</v>
+      </c>
+      <c r="V13" s="8">
+        <v>47</v>
+      </c>
+      <c r="W13" s="8">
+        <v>48</v>
+      </c>
+      <c r="X13" s="8">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>50</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>51</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>52</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="7" t="s">
+      <c r="I14" s="8">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>6</v>
+      </c>
+      <c r="K14" s="8">
+        <v>7</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8">
+        <v>9</v>
+      </c>
+      <c r="N14" s="8">
+        <v>10</v>
+      </c>
+      <c r="O14" s="8">
+        <v>11</v>
+      </c>
+      <c r="P14" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>13</v>
+      </c>
+      <c r="R14" s="8">
+        <v>14</v>
+      </c>
+      <c r="S14" s="8">
+        <v>15</v>
+      </c>
+      <c r="T14" s="8">
+        <v>16</v>
+      </c>
+      <c r="U14" s="8">
+        <v>17</v>
+      </c>
+      <c r="V14" s="8">
+        <v>18</v>
+      </c>
+      <c r="W14" s="8">
+        <v>19</v>
+      </c>
+      <c r="X14" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>22</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6</v>
+      </c>
+      <c r="J15" s="8">
+        <v>7</v>
+      </c>
+      <c r="K15" s="8">
+        <v>8</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9</v>
+      </c>
+      <c r="M15" s="8">
+        <v>10</v>
+      </c>
+      <c r="N15" s="8">
+        <v>11</v>
+      </c>
+      <c r="O15" s="8">
+        <v>12</v>
+      </c>
+      <c r="P15" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>14</v>
+      </c>
+      <c r="R15" s="8">
+        <v>15</v>
+      </c>
+      <c r="S15" s="8">
+        <v>16</v>
+      </c>
+      <c r="T15" s="8">
+        <v>17</v>
+      </c>
+      <c r="U15" s="8">
+        <v>18</v>
+      </c>
+      <c r="V15" s="8">
+        <v>19</v>
+      </c>
+      <c r="W15" s="8">
+        <v>20</v>
+      </c>
+      <c r="X15" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8">
+        <v>7</v>
+      </c>
+      <c r="J16" s="8">
+        <v>8</v>
+      </c>
+      <c r="K16" s="8">
+        <v>9</v>
+      </c>
+      <c r="L16" s="8">
+        <v>10</v>
+      </c>
+      <c r="M16" s="8">
+        <v>11</v>
+      </c>
+      <c r="N16" s="8">
+        <v>12</v>
+      </c>
+      <c r="O16" s="8">
+        <v>13</v>
+      </c>
+      <c r="P16" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>15</v>
+      </c>
+      <c r="R16" s="8">
+        <v>16</v>
+      </c>
+      <c r="S16" s="8">
+        <v>17</v>
+      </c>
+      <c r="T16" s="8">
+        <v>18</v>
+      </c>
+      <c r="U16" s="8">
+        <v>19</v>
+      </c>
+      <c r="V16" s="8">
+        <v>20</v>
+      </c>
+      <c r="W16" s="8">
+        <v>21</v>
+      </c>
+      <c r="X16" s="8">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>24</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>6</v>
+      </c>
+      <c r="H17" s="8">
+        <v>7</v>
+      </c>
+      <c r="I17" s="8">
+        <v>8</v>
+      </c>
+      <c r="J17" s="8">
+        <v>9</v>
+      </c>
+      <c r="K17" s="8">
+        <v>10</v>
+      </c>
+      <c r="L17" s="8">
+        <v>11</v>
+      </c>
+      <c r="M17" s="8">
+        <v>12</v>
+      </c>
+      <c r="N17" s="8">
+        <v>13</v>
+      </c>
+      <c r="O17" s="8">
+        <v>14</v>
+      </c>
+      <c r="P17" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>16</v>
+      </c>
+      <c r="R17" s="8">
+        <v>17</v>
+      </c>
+      <c r="S17" s="8">
+        <v>18</v>
+      </c>
+      <c r="T17" s="8">
+        <v>19</v>
+      </c>
+      <c r="U17" s="8">
+        <v>20</v>
+      </c>
+      <c r="V17" s="8">
+        <v>21</v>
+      </c>
+      <c r="W17" s="8">
+        <v>22</v>
+      </c>
+      <c r="X17" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8">
+        <v>7</v>
+      </c>
+      <c r="H18" s="8">
+        <v>8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>9</v>
+      </c>
+      <c r="J18" s="8">
+        <v>10</v>
+      </c>
+      <c r="K18" s="8">
+        <v>11</v>
+      </c>
+      <c r="L18" s="8">
+        <v>12</v>
+      </c>
+      <c r="M18" s="8">
+        <v>13</v>
+      </c>
+      <c r="N18" s="8">
+        <v>14</v>
+      </c>
+      <c r="O18" s="8">
+        <v>15</v>
+      </c>
+      <c r="P18" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>17</v>
+      </c>
+      <c r="R18" s="8">
+        <v>18</v>
+      </c>
+      <c r="S18" s="8">
+        <v>19</v>
+      </c>
+      <c r="T18" s="8">
+        <v>20</v>
+      </c>
+      <c r="U18" s="8">
+        <v>21</v>
+      </c>
+      <c r="V18" s="8">
+        <v>22</v>
+      </c>
+      <c r="W18" s="8">
+        <v>23</v>
+      </c>
+      <c r="X18" s="8">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>26</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8">
+        <v>7</v>
+      </c>
+      <c r="G19" s="8">
+        <v>8</v>
+      </c>
+      <c r="H19" s="8">
+        <v>9</v>
+      </c>
+      <c r="I19" s="8">
+        <v>10</v>
+      </c>
+      <c r="J19" s="8">
+        <v>11</v>
+      </c>
+      <c r="K19" s="8">
+        <v>12</v>
+      </c>
+      <c r="L19" s="8">
+        <v>13</v>
+      </c>
+      <c r="M19" s="8">
+        <v>14</v>
+      </c>
+      <c r="N19" s="8">
+        <v>15</v>
+      </c>
+      <c r="O19" s="8">
+        <v>16</v>
+      </c>
+      <c r="P19" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>18</v>
+      </c>
+      <c r="R19" s="8">
+        <v>19</v>
+      </c>
+      <c r="S19" s="8">
+        <v>20</v>
+      </c>
+      <c r="T19" s="8">
+        <v>21</v>
+      </c>
+      <c r="U19" s="8">
+        <v>22</v>
+      </c>
+      <c r="V19" s="8">
+        <v>23</v>
+      </c>
+      <c r="W19" s="8">
+        <v>24</v>
+      </c>
+      <c r="X19" s="8">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>26</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>27</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8">
+        <v>9</v>
+      </c>
+      <c r="H20" s="8">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8">
+        <v>11</v>
+      </c>
+      <c r="J20" s="8">
+        <v>12</v>
+      </c>
+      <c r="K20" s="8">
+        <v>13</v>
+      </c>
+      <c r="L20" s="8">
+        <v>14</v>
+      </c>
+      <c r="M20" s="8">
+        <v>15</v>
+      </c>
+      <c r="N20" s="8">
+        <v>16</v>
+      </c>
+      <c r="O20" s="8">
+        <v>17</v>
+      </c>
+      <c r="P20" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>19</v>
+      </c>
+      <c r="R20" s="8">
+        <v>20</v>
+      </c>
+      <c r="S20" s="8">
+        <v>21</v>
+      </c>
+      <c r="T20" s="8">
+        <v>22</v>
+      </c>
+      <c r="U20" s="8">
+        <v>23</v>
+      </c>
+      <c r="V20" s="8">
+        <v>24</v>
+      </c>
+      <c r="W20" s="8">
+        <v>25</v>
+      </c>
+      <c r="X20" s="8">
+        <v>26</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>27</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8">
+        <v>9</v>
+      </c>
+      <c r="J21" s="8">
+        <v>10</v>
+      </c>
+      <c r="K21" s="8">
+        <v>11</v>
+      </c>
+      <c r="L21" s="8">
+        <v>12</v>
+      </c>
+      <c r="M21" s="8">
+        <v>13</v>
+      </c>
+      <c r="N21" s="8">
+        <v>14</v>
+      </c>
+      <c r="O21" s="8">
+        <v>15</v>
+      </c>
+      <c r="P21" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>17</v>
+      </c>
+      <c r="R21" s="8">
+        <v>18</v>
+      </c>
+      <c r="S21" s="8">
+        <v>19</v>
+      </c>
+      <c r="T21" s="8">
+        <v>20</v>
+      </c>
+      <c r="U21" s="8">
+        <v>21</v>
+      </c>
+      <c r="V21" s="8">
+        <v>22</v>
+      </c>
+      <c r="W21" s="8">
+        <v>23</v>
+      </c>
+      <c r="X21" s="8">
+        <v>24</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>26</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6</v>
+      </c>
+      <c r="H22" s="8">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8">
+        <v>9</v>
+      </c>
+      <c r="K22" s="8">
+        <v>10</v>
+      </c>
+      <c r="L22" s="8">
+        <v>11</v>
+      </c>
+      <c r="M22" s="8">
+        <v>12</v>
+      </c>
+      <c r="N22" s="8">
+        <v>13</v>
+      </c>
+      <c r="O22" s="8">
+        <v>14</v>
+      </c>
+      <c r="P22" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>16</v>
+      </c>
+      <c r="R22" s="8">
+        <v>17</v>
+      </c>
+      <c r="S22" s="8">
+        <v>18</v>
+      </c>
+      <c r="T22" s="8">
+        <v>19</v>
+      </c>
+      <c r="U22" s="8">
+        <v>20</v>
+      </c>
+      <c r="V22" s="8">
+        <v>21</v>
+      </c>
+      <c r="W22" s="8">
+        <v>22</v>
+      </c>
+      <c r="X22" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6</v>
+      </c>
+      <c r="I23" s="8">
+        <v>7</v>
+      </c>
+      <c r="J23" s="8">
+        <v>8</v>
+      </c>
+      <c r="K23" s="8">
+        <v>9</v>
+      </c>
+      <c r="L23" s="8">
+        <v>10</v>
+      </c>
+      <c r="M23" s="8">
+        <v>11</v>
+      </c>
+      <c r="N23" s="8">
+        <v>12</v>
+      </c>
+      <c r="O23" s="8">
+        <v>13</v>
+      </c>
+      <c r="P23" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>15</v>
+      </c>
+      <c r="R23" s="8">
+        <v>16</v>
+      </c>
+      <c r="S23" s="8">
+        <v>17</v>
+      </c>
+      <c r="T23" s="8">
+        <v>18</v>
+      </c>
+      <c r="U23" s="8">
+        <v>19</v>
+      </c>
+      <c r="V23" s="8">
+        <v>20</v>
+      </c>
+      <c r="W23" s="8">
+        <v>21</v>
+      </c>
+      <c r="X23" s="8">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>23</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>24</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>25</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8">
+        <v>6</v>
+      </c>
+      <c r="J24" s="8">
+        <v>7</v>
+      </c>
+      <c r="K24" s="8">
+        <v>8</v>
+      </c>
+      <c r="L24" s="8">
+        <v>9</v>
+      </c>
+      <c r="M24" s="8">
+        <v>10</v>
+      </c>
+      <c r="N24" s="8">
+        <v>11</v>
+      </c>
+      <c r="O24" s="8">
+        <v>12</v>
+      </c>
+      <c r="P24" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>14</v>
+      </c>
+      <c r="R24" s="8">
+        <v>15</v>
+      </c>
+      <c r="S24" s="8">
+        <v>16</v>
+      </c>
+      <c r="T24" s="8">
+        <v>17</v>
+      </c>
+      <c r="U24" s="8">
+        <v>18</v>
+      </c>
+      <c r="V24" s="8">
+        <v>19</v>
+      </c>
+      <c r="W24" s="8">
+        <v>20</v>
+      </c>
+      <c r="X24" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25" s="8">
+        <v>9</v>
+      </c>
+      <c r="I25" s="8">
+        <v>10</v>
+      </c>
+      <c r="J25" s="8">
+        <v>11</v>
+      </c>
+      <c r="K25" s="8">
+        <v>12</v>
+      </c>
+      <c r="L25" s="8">
+        <v>13</v>
+      </c>
+      <c r="M25" s="8">
+        <v>14</v>
+      </c>
+      <c r="N25" s="8">
+        <v>15</v>
+      </c>
+      <c r="O25" s="8">
+        <v>16</v>
+      </c>
+      <c r="P25" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>18</v>
+      </c>
+      <c r="R25" s="8">
+        <v>19</v>
+      </c>
+      <c r="S25" s="8">
+        <v>20</v>
+      </c>
+      <c r="T25" s="8">
+        <v>21</v>
+      </c>
+      <c r="U25" s="8">
+        <v>22</v>
+      </c>
+      <c r="V25" s="8">
+        <v>23</v>
+      </c>
+      <c r="W25" s="8">
+        <v>24</v>
+      </c>
+      <c r="X25" s="8">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>26</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="J26" s="8">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="K26" s="8">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="L26" s="8">
+        <v>8</v>
+      </c>
+      <c r="M26" s="8">
+        <v>9</v>
+      </c>
+      <c r="N26" s="8">
+        <v>10</v>
+      </c>
+      <c r="O26" s="8">
+        <v>11</v>
+      </c>
+      <c r="P26" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>13</v>
+      </c>
+      <c r="R26" s="8">
+        <v>14</v>
+      </c>
+      <c r="S26" s="8">
+        <v>15</v>
+      </c>
+      <c r="T26" s="8">
+        <v>16</v>
+      </c>
+      <c r="U26" s="8">
+        <v>17</v>
+      </c>
+      <c r="V26" s="8">
+        <v>18</v>
+      </c>
+      <c r="W26" s="8">
+        <v>19</v>
+      </c>
+      <c r="X26" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>23</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="E27" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+      <c r="H27" s="8">
+        <v>3</v>
+      </c>
+      <c r="I27" s="8">
+        <v>4</v>
+      </c>
+      <c r="J27" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="K27" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="L27" s="8">
+        <v>7</v>
+      </c>
+      <c r="M27" s="8">
         <v>8</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="N27" s="8">
         <v>9</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="O27" s="8">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="P27" s="8">
         <v>11</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="Q27" s="8">
         <v>12</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="R27" s="8">
         <v>13</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="S27" s="8">
         <v>14</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="T27" s="8">
         <v>15</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="U27" s="8">
         <v>16</v>
       </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="V27" s="8">
         <v>17</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="W27" s="8">
         <v>18</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="X27" s="8">
         <v>19</v>
       </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="Y27" s="8">
         <v>20</v>
       </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="Z27" s="8">
         <v>21</v>
       </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="AA27" s="8">
         <v>22</v>
       </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="2:11" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="AB27" s="8">
         <v>23</v>
       </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50071FEA-80B3-4168-9573-EE347E70C465}">
+          <x14:formula1>
+            <xm:f>Settings!$B$3:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:D27</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1519,7 +2992,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1528,23 +3001,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1562,10 +3025,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/example/Power_ImpExp.xlsx
+++ b/data/example/Power_ImpExp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95726145-DF84-4F39-BB07-78CB718B53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F969C4-B5EB-455B-ADC3-404C38F678F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34572" yWindow="-17508" windowWidth="30936" windowHeight="16776" tabRatio="857" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,7 +883,9 @@
   </sheetPr>
   <dimension ref="B1:AB27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
